--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2282728.850907381</v>
+        <v>2337962.807443195</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484464</v>
+        <v>278692.0725916858</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5410709.577337365</v>
+        <v>5478382.522962961</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.4078346210725</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>162.7211585357412</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
         <v>94.13938596491228</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>159.5828560759984</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>85.78580588144442</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>63.40306846943442</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>350.485015878744</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,10 +1060,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.06158462964408</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>239.0906404773209</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>193.5580851767028</v>
+        <v>310.0384872192902</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,7 +1196,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>132.7957673084531</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1534,7 +1534,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967366169</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>237.7893185997716</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1613,10 +1613,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F14" t="n">
-        <v>155.9902440393918</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>35.2009270099862</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1825,13 +1825,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695674</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631631055</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>326.8694217223811</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.74508580040394</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2011,13 +2011,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2084,7 +2084,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112152</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170499</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225763</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225808</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3320,7 +3320,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.630079656154</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.10461178739004</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,25 +3503,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773004</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3560,13 +3560,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864834</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225779</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,25 +3740,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.412621479131395</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.630079656155</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>311.6035184023957</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,13 +3955,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>161.1551102058687</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,25 +3977,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>155.9902440393915</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,16 +4034,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4141,13 +4141,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604903987</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>160.788496495006</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.6683834787607</v>
+        <v>283.7392223402076</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
         <v>87.50503495329731</v>
@@ -4331,19 +4331,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W2" t="n">
-        <v>1074.529126782698</v>
+        <v>1133.426975905747</v>
       </c>
       <c r="X2" t="n">
-        <v>1059.427067402413</v>
+        <v>1118.324916525462</v>
       </c>
       <c r="Y2" t="n">
-        <v>1055.18134774247</v>
+        <v>710.0387928251154</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.1384727187784</v>
+        <v>122.603617826933</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>614.3767621236573</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.9570914377655</v>
+        <v>122.603617826933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.417919242928</v>
+        <v>1786.543608036966</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1348.40113522039</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.4913503948342</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.7166055531293</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>1294.102365436318</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>1697.183430080417</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>1697.183430080417</v>
+        <v>557.764910672644</v>
       </c>
       <c r="O5" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="W5" t="n">
-        <v>1437.146076848872</v>
+        <v>2177.930102426143</v>
       </c>
       <c r="X5" t="n">
-        <v>1018.003613428182</v>
+        <v>2162.828043045858</v>
       </c>
       <c r="Y5" t="n">
-        <v>609.7174897278358</v>
+        <v>1808.80277448147</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>431.6596472970923</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3833729168607</v>
+        <v>593.0357356940367</v>
       </c>
       <c r="C7" t="n">
-        <v>199.8216614000857</v>
+        <v>420.4740241772616</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>254.5960313787843</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>84.83802762952158</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.160939331176</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>372.3833729168607</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.3833729168607</v>
+        <v>784.8543544130239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>325.162676314438</v>
+        <v>1153.221971308027</v>
       </c>
       <c r="C8" t="n">
-        <v>291.0606075382654</v>
+        <v>1119.119902531855</v>
       </c>
       <c r="D8" t="n">
-        <v>259.191226753114</v>
+        <v>1087.250521746703</v>
       </c>
       <c r="E8" t="n">
-        <v>229.4568859518132</v>
+        <v>1057.516180945403</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>771.6250763881362</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>366.7696217991695</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>351.6675624188842</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y8" t="n">
-        <v>347.4218427589418</v>
+        <v>1175.481137752531</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245547</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397511</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.990664134033</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693458</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693458</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263765</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.30004809716</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055756</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055756</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239593</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112631</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429648</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363474</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247378</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649026</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1035.891962983371</v>
+        <v>790.3368563937674</v>
       </c>
       <c r="C13" t="n">
-        <v>863.330251466596</v>
+        <v>617.7751448769924</v>
       </c>
       <c r="D13" t="n">
-        <v>697.4522586681187</v>
+        <v>451.8971520785151</v>
       </c>
       <c r="E13" t="n">
-        <v>527.6942549188559</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>350.9872008806121</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354732</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169405</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745699</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289286</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T13" t="n">
-        <v>2532.736396587283</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U13" t="n">
-        <v>2254.303395840388</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V13" t="n">
-        <v>1967.347887710819</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W13" t="n">
-        <v>1695.32148329711</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.13025238825</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y13" t="n">
-        <v>1227.710581702358</v>
+        <v>982.1554751127546</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168564</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351988</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526432</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847273</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146349</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111512</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>403.2461837293646</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1237.596475687543</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940402</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940402</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940402</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510708</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344104</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302699</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055756</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239593</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112631</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429648</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363474</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774508</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353819</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653472</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649026</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777443</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169405</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583915</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2677.839094654636</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2399.406093907741</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1230.992967093274</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2524.80576642952</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2086.663293612943</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1650.753508787388</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978763945683</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.1113343548909</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7135029781548</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>98.58334842137101</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137101</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742888</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2405.025028953197</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2405.025028953197</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953197</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523503</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.5145703569</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315494</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068551</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068551</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4709.100193941589</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4449.877891258606</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4087.260941192432</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3682.405486603466</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3263.263023182777</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2854.97689948243</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126638</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958593</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.087928722813</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051585</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137101</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818286</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480409</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.2053465480409</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.2053465480409</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.2053465480409</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.2053465480409</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.2053465480409</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132062</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924269</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>912.274505769684</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>739.7127942529089</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>573.8348014544316</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>404.0767977051688</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>404.0767977051688</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>238.4855227309965</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137101</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137101</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571964</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251575</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622168</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200623</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453728</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324158</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.70722991045</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243862</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>999.8958045579708</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883923</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716172</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731397</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.556969623877</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856331</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050032</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.57329640738</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6032,7 +6032,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6409,22 +6409,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.995166752589</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
         <v>1144.575496066698</v>
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6883,7 +6883,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
         <v>2454.80183470935</v>
@@ -6932,55 +6932,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7005,10 +7005,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
         <v>128.3245134312372</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>780.195165830936</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324588</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>444.559169283196</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878952</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755404</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127514</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7160,58 +7160,58 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837044</v>
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7309,31 +7309,31 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.635886538673</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.493413722096</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.583628896541</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410832</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981138</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814534</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773129</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583061</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900078</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833904</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.364044144616</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.221580723927</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2952.935457023581</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.909505607455</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>778.3477940906799</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4698012922026</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429398</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046961</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4134685305237</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372867</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2698.833909390639</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2452.954462969094</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2174.521462222199</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1887.56595409263</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W43" t="n">
-        <v>1615.539549678922</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.147795012334</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1142.728124326442</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168564</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351988</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526432</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>944.8298656847273</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.2639626146349</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111512</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>531.990664134033</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055756</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239593</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112631</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429648</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363474</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774508</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353819</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653472</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.9077216724079</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090502</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649026</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415727</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729503</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.211622752171</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.053361506103</v>
+        <v>811.7546776883873</v>
       </c>
       <c r="C46" t="n">
-        <v>771.4916499893279</v>
+        <v>639.1929661716123</v>
       </c>
       <c r="D46" t="n">
-        <v>605.6136571908507</v>
+        <v>473.314973373135</v>
       </c>
       <c r="E46" t="n">
-        <v>435.8556534415879</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>259.1485994033434</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111512</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169405</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S46" t="n">
-        <v>2691.977765289287</v>
+        <v>2559.679081471571</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.098318867742</v>
+        <v>2313.799635050027</v>
       </c>
       <c r="U46" t="n">
-        <v>2167.665318120848</v>
+        <v>2035.366634303132</v>
       </c>
       <c r="V46" t="n">
-        <v>1880.709809991278</v>
+        <v>1748.411126173562</v>
       </c>
       <c r="W46" t="n">
-        <v>1608.683405577569</v>
+        <v>1476.384721759854</v>
       </c>
       <c r="X46" t="n">
-        <v>1363.291650910982</v>
+        <v>1230.992967093266</v>
       </c>
       <c r="Y46" t="n">
-        <v>1135.87198022509</v>
+        <v>1003.573296407375</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741953</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>298.8178948332411</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,25 +8611,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>321.9475215913873</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,10 +8696,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196806868</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457066</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111849</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10826,13 +10826,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>92.22506899525865</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196806823</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>268.0111327346239</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>160.795820744404</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>5.148518520150049</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>267.5985112554926</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2197249473431</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>139.5921776627222</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95.16715305767757</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103.1553467313933</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627252</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>160.7958207444072</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627255</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>89.20338164068127</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>81.78272691405292</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>267.5985112554928</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>139.5921776627303</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3.146865729424575</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>467989.5150975496</v>
+        <v>472216.955905308</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>467989.5150975496</v>
+        <v>472978.1159206165</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>455484.717314884</v>
+        <v>474706.6928761696</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>455484.717314884</v>
+        <v>474706.6928761696</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>461912.0496584803</v>
+        <v>474706.6928761695</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>474706.6928761696</v>
+        <v>474706.6928761695</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>468279.3605325732</v>
+        <v>474706.6928761695</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>455484.717314884</v>
+        <v>474706.6928761695</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013676</v>
       </c>
       <c r="C2" t="n">
         <v>482532.5879013676</v>
@@ -26320,19 +26320,19 @@
         <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
-        <v>454971.5081745084</v>
+        <v>474171.8257236172</v>
       </c>
       <c r="F2" t="n">
-        <v>454971.5081745085</v>
+        <v>474171.8257236172</v>
       </c>
       <c r="G2" t="n">
-        <v>461391.598638012</v>
+        <v>474171.825723617</v>
       </c>
       <c r="H2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="I2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
         <v>474171.825723617</v>
@@ -26344,16 +26344,16 @@
         <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="N2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="O2" t="n">
-        <v>467751.7352601136</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="P2" t="n">
-        <v>454971.5081745085</v>
+        <v>474171.8257236169</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.767895016</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998293</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220372</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996353</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877238</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622443</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830676</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955548</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26563.08616012787</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>26563.08616012787</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>26937.91713981297</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26448,16 +26448,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020265</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.0787502026</v>
       </c>
       <c r="O4" t="n">
-        <v>27309.24777051758</v>
+        <v>27684.07875020258</v>
       </c>
       <c r="P4" t="n">
-        <v>26563.08616012787</v>
+        <v>27684.07875020257</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764749</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764749</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024196</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764749</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99484.11264397338</v>
+        <v>99484.11264397315</v>
       </c>
       <c r="C6" t="n">
-        <v>241675.4133036831</v>
+        <v>205499.3084027943</v>
       </c>
       <c r="D6" t="n">
-        <v>241675.4133036832</v>
+        <v>266035.1675576071</v>
       </c>
       <c r="E6" t="n">
-        <v>120534.0577146959</v>
+        <v>186391.1748071896</v>
       </c>
       <c r="F6" t="n">
-        <v>354889.0797367332</v>
+        <v>368746.2840282393</v>
       </c>
       <c r="G6" t="n">
-        <v>353201.1256551065</v>
+        <v>368746.2840282392</v>
       </c>
       <c r="H6" t="n">
-        <v>356366.7533876582</v>
+        <v>368746.2840282393</v>
       </c>
       <c r="I6" t="n">
-        <v>368769.5083676217</v>
+        <v>368746.2840282392</v>
       </c>
       <c r="J6" t="n">
-        <v>257755.0430226316</v>
+        <v>257731.818683249</v>
       </c>
       <c r="K6" t="n">
-        <v>368769.5083676219</v>
+        <v>315700.4293894668</v>
       </c>
       <c r="L6" t="n">
-        <v>368769.5083676219</v>
+        <v>359353.9823016168</v>
       </c>
       <c r="M6" t="n">
-        <v>173168.3290845542</v>
+        <v>216546.1130902514</v>
       </c>
       <c r="N6" t="n">
-        <v>368769.5083676219</v>
+        <v>368746.2840282391</v>
       </c>
       <c r="O6" t="n">
-        <v>364128.251406398</v>
+        <v>368746.2840282391</v>
       </c>
       <c r="P6" t="n">
-        <v>354889.0797367331</v>
+        <v>368746.2840282392</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938346</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760737</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938346</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483587</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939391</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938346</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760737</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>312.6287401589862</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>271.0398895526697</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>11.25323832560895</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27555,7 +27555,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>139.3596680975884</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>370.3579796189765</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>53.71824658459906</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>140.8783988682173</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>3.847196642600778</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>230.0306701181815</v>
+        <v>113.5502680755941</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28545,7 +28545,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-7.058347818673979e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,22 +30271,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.03913730891415e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,16 +30508,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.679839883145684e-12</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-4.33827551773565e-12</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -34699,10 +34699,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741953</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>298.8178948332411</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>321.9475215913873</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,16 +35410,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196806868</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908445</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457066</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1047.309799111849</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158823</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37236,16 +37236,16 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37382,7 +37382,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37467,7 +37467,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37476,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>92.22506899525865</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37619,7 +37619,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37704,16 +37704,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365288205</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37856,10 +37856,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645583</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196806823</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,13 +38187,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821493</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
